--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/FR_DISPATCHRMS_DATASET/1U3I3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/FR_DISPATCHRMS_DATASET/1U3I3I3I.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8D9EC6-91E0-4F1E-94CE-9B46DDBB969B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF1D2B7-6A57-4B18-B233-EAD87AA4070B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9769,7 +9769,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:I4"/>
+      <selection activeCell="E3" sqref="E3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9878,22 +9878,22 @@
         <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -9910,22 +9910,22 @@
         <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -10544,16 +10544,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C19" xr:uid="{F2FD371F-D14C-4357-9975-023F16FFE7FD}">
       <formula1>$X$6:$X$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E5:E19" xr:uid="{B1CD085B-6163-4FE7-ACFC-0C2C8C6BE327}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E19" xr:uid="{B1CD085B-6163-4FE7-ACFC-0C2C8C6BE327}">
       <formula1>$Y$6:$Y$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 E3:E4 F5:F19" xr:uid="{3018D3F4-DA0C-46A4-A639-8C023DE84962}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F19" xr:uid="{3018D3F4-DA0C-46A4-A639-8C023DE84962}">
       <formula1>$Z$6:$Z$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 F3:F4 G5:G19" xr:uid="{E5230211-027F-4504-A4B5-A84E4D1BC1B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G19" xr:uid="{E5230211-027F-4504-A4B5-A84E4D1BC1B9}">
       <formula1>$AA$6:$AA$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J19 I3:I4" xr:uid="{68EF07A4-5648-463E-95B9-AD4ADF9B41EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J19" xr:uid="{68EF07A4-5648-463E-95B9-AD4ADF9B41EE}">
       <formula1>$AB$6:$AB$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20" xr:uid="{00000000-0002-0000-0000-000005000000}">
